--- a/project-root/uploads/CM-GII-2022-23.xlsx
+++ b/project-root/uploads/CM-GII-2022-23.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df88bd836257aa85/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F797B5A4-0F88-42C1-8BEC-93F9307B4629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{F797B5A4-0F88-42C1-8BEC-93F9307B4629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC43503F-1ECA-461F-ACA0-35735E12B13E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10908" yWindow="288" windowWidth="11604" windowHeight="9372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GII" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="73">
   <si>
     <t>ACCESO</t>
   </si>
@@ -722,7 +723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1067,6 +1068,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1172,7 +1359,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1421,6 +1608,72 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="17" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1451,29 +1704,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1484,44 +1722,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1562,13 +1779,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1588,6 +1820,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -16027,6 +16262,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -16290,10 +16529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX88"/>
+  <dimension ref="A1:BG88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R35" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+    <sheetView tabSelected="1" topLeftCell="X39" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ40" sqref="AJ40:AT54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16338,28 +16577,28 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ3" s="149" t="s">
+      <c r="AJ3" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="AK3" s="150"/>
-      <c r="AL3" s="90" t="s">
+      <c r="AK3" s="166"/>
+      <c r="AL3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90" t="s">
+      <c r="AM3" s="112"/>
+      <c r="AN3" s="112"/>
+      <c r="AO3" s="112"/>
+      <c r="AP3" s="112"/>
+      <c r="AQ3" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="91" t="s">
+      <c r="AR3" s="112"/>
+      <c r="AS3" s="113" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ4" s="151"/>
-      <c r="AK4" s="152"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="168"/>
       <c r="AL4" s="33" t="s">
         <v>6</v>
       </c>
@@ -16381,13 +16620,13 @@
       <c r="AR4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="93"/>
+      <c r="AS4" s="115"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ5" s="144" t="s">
+      <c r="AJ5" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="AK5" s="145"/>
+      <c r="AK5" s="160"/>
       <c r="AL5" s="31">
         <v>250</v>
       </c>
@@ -16403,19 +16642,19 @@
       <c r="AP5" s="31">
         <v>250</v>
       </c>
-      <c r="AQ5" s="109" t="s">
+      <c r="AQ5" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="114">
+      <c r="AR5" s="104">
         <v>45223</v>
       </c>
-      <c r="AS5" s="128"/>
+      <c r="AS5" s="138"/>
     </row>
     <row r="6" spans="1:45" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ6" s="146" t="s">
+      <c r="AJ6" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="147"/>
+      <c r="AK6" s="163"/>
       <c r="AL6" s="24">
         <v>2450</v>
       </c>
@@ -16431,15 +16670,15 @@
       <c r="AP6" s="24">
         <v>2405</v>
       </c>
-      <c r="AQ6" s="127"/>
-      <c r="AR6" s="115"/>
-      <c r="AS6" s="129"/>
+      <c r="AQ6" s="137"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="139"/>
     </row>
     <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AJ7" s="146" t="s">
+      <c r="AJ7" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="AK7" s="147"/>
+      <c r="AK7" s="163"/>
       <c r="AL7" s="25">
         <v>339</v>
       </c>
@@ -16455,15 +16694,15 @@
       <c r="AP7" s="25">
         <v>332</v>
       </c>
-      <c r="AQ7" s="127"/>
-      <c r="AR7" s="115"/>
-      <c r="AS7" s="129"/>
+      <c r="AQ7" s="137"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="139"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AJ8" s="146" t="s">
+      <c r="AJ8" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="AK8" s="147"/>
+      <c r="AK8" s="163"/>
       <c r="AL8" s="24">
         <v>328</v>
       </c>
@@ -16479,15 +16718,15 @@
       <c r="AP8" s="24">
         <v>297</v>
       </c>
-      <c r="AQ8" s="127"/>
-      <c r="AR8" s="115"/>
-      <c r="AS8" s="129"/>
+      <c r="AQ8" s="137"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="139"/>
     </row>
     <row r="9" spans="1:45" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ9" s="148" t="s">
+      <c r="AJ9" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="AK9" s="154"/>
+      <c r="AK9" s="170"/>
       <c r="AL9" s="32">
         <v>280</v>
       </c>
@@ -16503,9 +16742,9 @@
       <c r="AP9" s="32">
         <v>258</v>
       </c>
-      <c r="AQ9" s="110"/>
-      <c r="AR9" s="116"/>
-      <c r="AS9" s="130"/>
+      <c r="AQ9" s="127"/>
+      <c r="AR9" s="106"/>
+      <c r="AS9" s="140"/>
     </row>
     <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -16542,10 +16781,10 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
-      <c r="AJ10" s="144" t="s">
+      <c r="AJ10" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="AK10" s="145"/>
+      <c r="AK10" s="160"/>
       <c r="AL10" s="27">
         <v>8.7780000000000005</v>
       </c>
@@ -16561,13 +16800,13 @@
       <c r="AP10" s="27">
         <v>10.68</v>
       </c>
-      <c r="AQ10" s="109" t="s">
+      <c r="AQ10" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AR10" s="114">
+      <c r="AR10" s="104">
         <v>45223</v>
       </c>
-      <c r="AS10" s="128"/>
+      <c r="AS10" s="138"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -16595,10 +16834,10 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
-      <c r="AJ11" s="146" t="s">
+      <c r="AJ11" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="AK11" s="147"/>
+      <c r="AK11" s="163"/>
       <c r="AL11" s="26">
         <v>10.01</v>
       </c>
@@ -16614,9 +16853,9 @@
       <c r="AP11" s="26">
         <v>11.55</v>
       </c>
-      <c r="AQ11" s="127"/>
-      <c r="AR11" s="115"/>
-      <c r="AS11" s="129"/>
+      <c r="AQ11" s="137"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="139"/>
     </row>
     <row r="12" spans="1:45" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -16644,10 +16883,10 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-      <c r="AJ12" s="146" t="s">
+      <c r="AJ12" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="AK12" s="147"/>
+      <c r="AK12" s="163"/>
       <c r="AL12" s="26">
         <v>1.0672999999999999</v>
       </c>
@@ -16663,9 +16902,9 @@
       <c r="AP12" s="26">
         <v>0.76</v>
       </c>
-      <c r="AQ12" s="127"/>
-      <c r="AR12" s="115"/>
-      <c r="AS12" s="129"/>
+      <c r="AQ12" s="137"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="139"/>
     </row>
     <row r="13" spans="1:45" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
@@ -16691,10 +16930,10 @@
       <c r="W13" s="10"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="AJ13" s="148" t="s">
+      <c r="AJ13" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AK13" s="154"/>
+      <c r="AK13" s="170"/>
       <c r="AL13" s="29">
         <v>13.14</v>
       </c>
@@ -16710,9 +16949,9 @@
       <c r="AP13" s="29">
         <v>13.83</v>
       </c>
-      <c r="AQ13" s="110"/>
-      <c r="AR13" s="116"/>
-      <c r="AS13" s="130"/>
+      <c r="AQ13" s="127"/>
+      <c r="AR13" s="106"/>
+      <c r="AS13" s="140"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
@@ -16743,22 +16982,22 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
-      <c r="AJ16" s="149" t="s">
+      <c r="AJ16" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="AK16" s="150"/>
-      <c r="AL16" s="153" t="s">
+      <c r="AK16" s="166"/>
+      <c r="AL16" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="AM16" s="153"/>
-      <c r="AN16" s="153"/>
-      <c r="AO16" s="153"/>
-      <c r="AP16" s="153"/>
-      <c r="AQ16" s="153" t="s">
+      <c r="AM16" s="169"/>
+      <c r="AN16" s="169"/>
+      <c r="AO16" s="169"/>
+      <c r="AP16" s="169"/>
+      <c r="AQ16" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="AR16" s="153"/>
-      <c r="AS16" s="100" t="s">
+      <c r="AR16" s="169"/>
+      <c r="AS16" s="98" t="s">
         <v>5</v>
       </c>
     </row>
@@ -16788,8 +17027,8 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="AJ17" s="151"/>
-      <c r="AK17" s="152"/>
+      <c r="AJ17" s="167"/>
+      <c r="AK17" s="168"/>
       <c r="AL17" s="33" t="s">
         <v>6</v>
       </c>
@@ -16811,7 +17050,7 @@
       <c r="AR17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AS17" s="101"/>
+      <c r="AS17" s="99"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -16839,10 +17078,10 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
-      <c r="AJ18" s="144" t="s">
+      <c r="AJ18" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="AK18" s="145"/>
+      <c r="AK18" s="160"/>
       <c r="AL18" s="40">
         <v>0.84560000000000002</v>
       </c>
@@ -16858,13 +17097,13 @@
       <c r="AP18" s="40">
         <v>0.83299999999999996</v>
       </c>
-      <c r="AQ18" s="140" t="s">
+      <c r="AQ18" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="AR18" s="143">
+      <c r="AR18" s="158">
         <v>45282</v>
       </c>
-      <c r="AS18" s="124"/>
+      <c r="AS18" s="134"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -16892,10 +17131,10 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
-      <c r="AJ19" s="146" t="s">
+      <c r="AJ19" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="AK19" s="147"/>
+      <c r="AK19" s="163"/>
       <c r="AL19" s="37">
         <v>0.15440000000000001</v>
       </c>
@@ -16911,9 +17150,9 @@
       <c r="AP19" s="37">
         <v>0.16700000000000001</v>
       </c>
-      <c r="AQ19" s="141"/>
-      <c r="AR19" s="141"/>
-      <c r="AS19" s="125"/>
+      <c r="AQ19" s="156"/>
+      <c r="AR19" s="156"/>
+      <c r="AS19" s="135"/>
       <c r="AT19" s="13"/>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
@@ -16942,10 +17181,10 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-      <c r="AJ20" s="146" t="s">
+      <c r="AJ20" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="AK20" s="147"/>
+      <c r="AK20" s="163"/>
       <c r="AL20" s="37">
         <v>0</v>
       </c>
@@ -16961,9 +17200,9 @@
       <c r="AP20" s="37">
         <v>0</v>
       </c>
-      <c r="AQ20" s="141"/>
-      <c r="AR20" s="141"/>
-      <c r="AS20" s="125"/>
+      <c r="AQ20" s="156"/>
+      <c r="AR20" s="156"/>
+      <c r="AS20" s="135"/>
       <c r="AT20" s="13"/>
     </row>
     <row r="21" spans="1:46" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16992,10 +17231,10 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-      <c r="AJ21" s="139" t="s">
+      <c r="AJ21" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="AK21" s="121"/>
+      <c r="AK21" s="111"/>
       <c r="AL21" s="32">
         <v>1529</v>
       </c>
@@ -17011,9 +17250,9 @@
       <c r="AP21" s="41">
         <v>1425</v>
       </c>
-      <c r="AQ21" s="142"/>
-      <c r="AR21" s="142"/>
-      <c r="AS21" s="126"/>
+      <c r="AQ21" s="157"/>
+      <c r="AR21" s="157"/>
+      <c r="AS21" s="136"/>
       <c r="AT21" s="36"/>
     </row>
     <row r="22" spans="1:46" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -17042,7 +17281,7 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-      <c r="AJ22" s="144" t="s">
+      <c r="AJ22" s="159" t="s">
         <v>32</v>
       </c>
       <c r="AK22" s="42" t="s">
@@ -17066,20 +17305,20 @@
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="AQ22" s="111" t="s">
+      <c r="AQ22" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="AR22" s="114">
+      <c r="AR22" s="104">
         <v>45282</v>
       </c>
-      <c r="AS22" s="102"/>
+      <c r="AS22" s="95"/>
     </row>
     <row r="23" spans="1:46" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-      <c r="AJ23" s="146"/>
+      <c r="AJ23" s="162"/>
       <c r="AK23" s="39" t="s">
         <v>34</v>
       </c>
@@ -17094,16 +17333,16 @@
       <c r="AP23" s="38">
         <v>152</v>
       </c>
-      <c r="AQ23" s="112"/>
-      <c r="AR23" s="112"/>
-      <c r="AS23" s="103"/>
+      <c r="AQ23" s="102"/>
+      <c r="AR23" s="102"/>
+      <c r="AS23" s="96"/>
     </row>
     <row r="24" spans="1:46" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="AJ24" s="148"/>
+      <c r="AJ24" s="164"/>
       <c r="AK24" s="46" t="s">
         <v>35</v>
       </c>
@@ -17118,16 +17357,16 @@
       <c r="AP24" s="41">
         <v>100</v>
       </c>
-      <c r="AQ24" s="113"/>
-      <c r="AR24" s="113"/>
-      <c r="AS24" s="104"/>
+      <c r="AQ24" s="103"/>
+      <c r="AR24" s="103"/>
+      <c r="AS24" s="97"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="AJ25" s="144" t="s">
+      <c r="AJ25" s="159" t="s">
         <v>36</v>
       </c>
       <c r="AK25" s="42" t="s">
@@ -17152,20 +17391,20 @@
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="AQ25" s="111" t="s">
+      <c r="AQ25" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="AR25" s="114">
+      <c r="AR25" s="104">
         <v>45282</v>
       </c>
-      <c r="AS25" s="102"/>
+      <c r="AS25" s="95"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="AJ26" s="146"/>
+      <c r="AJ26" s="162"/>
       <c r="AK26" s="39" t="s">
         <v>34</v>
       </c>
@@ -17182,9 +17421,9 @@
       <c r="AP26" s="38">
         <v>96</v>
       </c>
-      <c r="AQ26" s="112"/>
-      <c r="AR26" s="112"/>
-      <c r="AS26" s="103"/>
+      <c r="AQ26" s="102"/>
+      <c r="AR26" s="102"/>
+      <c r="AS26" s="96"/>
     </row>
     <row r="27" spans="1:46" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
@@ -17215,7 +17454,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="AJ27" s="148"/>
+      <c r="AJ27" s="164"/>
       <c r="AK27" s="46" t="s">
         <v>35</v>
       </c>
@@ -17232,9 +17471,9 @@
       <c r="AP27" s="41">
         <v>195</v>
       </c>
-      <c r="AQ27" s="113"/>
-      <c r="AR27" s="113"/>
-      <c r="AS27" s="104"/>
+      <c r="AQ27" s="103"/>
+      <c r="AR27" s="103"/>
+      <c r="AS27" s="97"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
@@ -17259,7 +17498,7 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-      <c r="AJ28" s="144" t="s">
+      <c r="AJ28" s="159" t="s">
         <v>39</v>
       </c>
       <c r="AK28" s="42" t="s">
@@ -17286,7 +17525,7 @@
       <c r="AR28" s="28">
         <v>45282</v>
       </c>
-      <c r="AS28" s="102"/>
+      <c r="AS28" s="95"/>
     </row>
     <row r="29" spans="1:46" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
@@ -17313,7 +17552,7 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
-      <c r="AJ29" s="148"/>
+      <c r="AJ29" s="164"/>
       <c r="AK29" s="46" t="s">
         <v>41</v>
       </c>
@@ -17338,7 +17577,7 @@
       <c r="AR29" s="30">
         <v>45282</v>
       </c>
-      <c r="AS29" s="104"/>
+      <c r="AS29" s="97"/>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -17431,7 +17670,7 @@
       <c r="AO32" s="16"/>
       <c r="AP32" s="16"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -17452,7 +17691,7 @@
       <c r="AO33" s="16"/>
       <c r="AP33" s="16"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -17484,7 +17723,7 @@
       <c r="AO34" s="16"/>
       <c r="AP34" s="16"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -17516,7 +17755,7 @@
       <c r="AO35" s="16"/>
       <c r="AP35" s="16"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -17548,7 +17787,7 @@
       <c r="AO36" s="16"/>
       <c r="AP36" s="16"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -17581,7 +17820,7 @@
       <c r="AO37" s="16"/>
       <c r="AP37" s="16"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -17614,7 +17853,7 @@
       <c r="AO38" s="16"/>
       <c r="AP38" s="16"/>
     </row>
-    <row r="39" spans="1:48" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:59" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -17647,7 +17886,7 @@
       <c r="AO39" s="16"/>
       <c r="AP39" s="16"/>
     </row>
-    <row r="40" spans="1:48" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:59" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
         <v>42</v>
       </c>
@@ -17669,29 +17908,29 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="Y40" s="7"/>
-      <c r="AJ40" s="117" t="s">
+      <c r="AJ40" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="AK40" s="118"/>
-      <c r="AL40" s="118"/>
-      <c r="AM40" s="90" t="s">
+      <c r="AK40" s="129"/>
+      <c r="AL40" s="130"/>
+      <c r="AM40" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="AN40" s="90"/>
-      <c r="AO40" s="90"/>
-      <c r="AP40" s="90"/>
-      <c r="AQ40" s="90"/>
-      <c r="AR40" s="90" t="s">
+      <c r="AN40" s="123"/>
+      <c r="AO40" s="123"/>
+      <c r="AP40" s="123"/>
+      <c r="AQ40" s="124"/>
+      <c r="AR40" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="AS40" s="90"/>
-      <c r="AT40" s="100" t="s">
+      <c r="AS40" s="112"/>
+      <c r="AT40" s="98" t="s">
         <v>43</v>
       </c>
       <c r="AU40" s="11"/>
       <c r="AV40" s="11"/>
     </row>
-    <row r="41" spans="1:48" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:59" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
         <v>44</v>
       </c>
@@ -17720,9 +17959,9 @@
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
-      <c r="AJ41" s="119"/>
-      <c r="AK41" s="120"/>
-      <c r="AL41" s="120"/>
+      <c r="AJ41" s="131"/>
+      <c r="AK41" s="132"/>
+      <c r="AL41" s="133"/>
       <c r="AM41" s="33" t="s">
         <v>6</v>
       </c>
@@ -17744,11 +17983,42 @@
       <c r="AS41" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AT41" s="101"/>
+      <c r="AT41" s="99"/>
       <c r="AU41" s="11"/>
       <c r="AV41" s="11"/>
+      <c r="AW41" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX41" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY41" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ41" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA41" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB41" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC41" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD41" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE41" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF41" s="112"/>
+      <c r="BG41" s="98" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -17773,13 +18043,13 @@
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
-      <c r="AJ42" s="137" t="s">
+      <c r="AJ42" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AK42" s="123" t="s">
+      <c r="AK42" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="AL42" s="123"/>
+      <c r="AL42" s="100"/>
       <c r="AM42" s="64">
         <v>0.68059999999999998</v>
       </c>
@@ -17795,17 +18065,48 @@
       <c r="AQ42" s="66">
         <v>0.7107</v>
       </c>
-      <c r="AR42" s="111" t="s">
+      <c r="AR42" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AS42" s="114">
+      <c r="AS42" s="104">
         <v>45230</v>
       </c>
-      <c r="AT42" s="105"/>
+      <c r="AT42" s="107"/>
       <c r="AU42" s="12"/>
       <c r="AV42" s="11"/>
+      <c r="AW42" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX42" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY42" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ42" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA42" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB42" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC42" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD42" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE42" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF42" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG42" s="99"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -17830,11 +18131,11 @@
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
-      <c r="AJ43" s="138"/>
-      <c r="AK43" s="122" t="s">
+      <c r="AJ43" s="153"/>
+      <c r="AK43" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="AL43" s="122"/>
+      <c r="AL43" s="110"/>
       <c r="AM43" s="50">
         <v>0.77880000000000005</v>
       </c>
@@ -17850,12 +18151,41 @@
       <c r="AQ43" s="56">
         <v>0.82709999999999995</v>
       </c>
-      <c r="AR43" s="112"/>
-      <c r="AS43" s="115"/>
-      <c r="AT43" s="106"/>
+      <c r="AR43" s="102"/>
+      <c r="AS43" s="105"/>
+      <c r="AT43" s="108"/>
       <c r="AV43" s="11"/>
+      <c r="AW43" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX43" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY43" s="100"/>
+      <c r="AZ43" s="64">
+        <v>0.68059999999999998</v>
+      </c>
+      <c r="BA43" s="64">
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="BB43" s="65">
+        <v>0.70230000000000004</v>
+      </c>
+      <c r="BC43" s="66">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="BD43" s="66">
+        <v>0.7107</v>
+      </c>
+      <c r="BE43" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF43" s="104">
+        <v>45230</v>
+      </c>
+      <c r="BG43" s="107"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -17880,11 +18210,11 @@
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
-      <c r="AJ44" s="138"/>
-      <c r="AK44" s="122" t="s">
+      <c r="AJ44" s="153"/>
+      <c r="AK44" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="AL44" s="122"/>
+      <c r="AL44" s="110"/>
       <c r="AM44" s="35">
         <v>0.15440000000000001</v>
       </c>
@@ -17894,12 +18224,37 @@
       <c r="AO44" s="57"/>
       <c r="AP44" s="25"/>
       <c r="AQ44" s="25"/>
-      <c r="AR44" s="112"/>
-      <c r="AS44" s="115"/>
-      <c r="AT44" s="106"/>
+      <c r="AR44" s="102"/>
+      <c r="AS44" s="105"/>
+      <c r="AT44" s="108"/>
       <c r="AV44" s="11"/>
+      <c r="AW44" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX44" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY44" s="110"/>
+      <c r="AZ44" s="50">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="BA44" s="50">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="BB44" s="50">
+        <v>0.83230000000000004</v>
+      </c>
+      <c r="BC44" s="56">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="BD44" s="56">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="BE44" s="102"/>
+      <c r="BF44" s="105"/>
+      <c r="BG44" s="108"/>
     </row>
-    <row r="45" spans="1:48" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:59" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -17922,11 +18277,11 @@
       <c r="V45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
-      <c r="AJ45" s="139"/>
-      <c r="AK45" s="121" t="s">
+      <c r="AJ45" s="154"/>
+      <c r="AK45" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="AL45" s="121"/>
+      <c r="AL45" s="111"/>
       <c r="AM45" s="67">
         <v>0.52569999999999995</v>
       </c>
@@ -17936,12 +18291,31 @@
       <c r="AO45" s="68"/>
       <c r="AP45" s="32"/>
       <c r="AQ45" s="32"/>
-      <c r="AR45" s="113"/>
-      <c r="AS45" s="116"/>
-      <c r="AT45" s="107"/>
+      <c r="AR45" s="103"/>
+      <c r="AS45" s="106"/>
+      <c r="AT45" s="109"/>
       <c r="AV45" s="11"/>
+      <c r="AW45" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX45" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY45" s="110"/>
+      <c r="AZ45" s="35">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="BA45" s="35">
+        <v>0.192</v>
+      </c>
+      <c r="BB45" s="57"/>
+      <c r="BC45" s="25"/>
+      <c r="BD45" s="25"/>
+      <c r="BE45" s="102"/>
+      <c r="BF45" s="105"/>
+      <c r="BG45" s="108"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -17967,10 +18341,10 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="AI46" s="9"/>
-      <c r="AJ46" s="137" t="s">
+      <c r="AJ46" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="AK46" s="123" t="s">
+      <c r="AK46" s="147" t="s">
         <v>47</v>
       </c>
       <c r="AL46" s="69" t="s">
@@ -17991,16 +18365,35 @@
       <c r="AQ46" s="71">
         <v>0.40820000000000001</v>
       </c>
-      <c r="AR46" s="111" t="s">
+      <c r="AR46" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="AS46" s="114">
+      <c r="AS46" s="104">
         <v>45282</v>
       </c>
-      <c r="AT46" s="102"/>
+      <c r="AT46" s="95"/>
       <c r="AV46" s="11"/>
+      <c r="AW46" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX46" s="111" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY46" s="111"/>
+      <c r="AZ46" s="67">
+        <v>0.52569999999999995</v>
+      </c>
+      <c r="BA46" s="67">
+        <v>0.3478</v>
+      </c>
+      <c r="BB46" s="68"/>
+      <c r="BC46" s="32"/>
+      <c r="BD46" s="32"/>
+      <c r="BE46" s="103"/>
+      <c r="BF46" s="106"/>
+      <c r="BG46" s="109"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -18026,8 +18419,8 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="AI47" s="9"/>
-      <c r="AJ47" s="138"/>
-      <c r="AK47" s="122"/>
+      <c r="AJ47" s="153"/>
+      <c r="AK47" s="148"/>
       <c r="AL47" s="51" t="s">
         <v>35</v>
       </c>
@@ -18046,12 +18439,43 @@
       <c r="AQ47" s="53">
         <v>0.63080000000000003</v>
       </c>
-      <c r="AR47" s="112"/>
-      <c r="AS47" s="112"/>
-      <c r="AT47" s="103"/>
+      <c r="AR47" s="102"/>
+      <c r="AS47" s="102"/>
+      <c r="AT47" s="96"/>
       <c r="AV47" s="11"/>
+      <c r="AW47" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX47" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY47" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ47" s="70">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="BA47" s="70">
+        <v>0.55810000000000004</v>
+      </c>
+      <c r="BB47" s="64">
+        <v>0.56040000000000001</v>
+      </c>
+      <c r="BC47" s="71">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="BD47" s="71">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="BE47" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF47" s="104">
+        <v>45282</v>
+      </c>
+      <c r="BG47" s="95"/>
     </row>
-    <row r="48" spans="1:48" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -18077,8 +18501,8 @@
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
       <c r="AI48" s="9"/>
-      <c r="AJ48" s="138"/>
-      <c r="AK48" s="122"/>
+      <c r="AJ48" s="153"/>
+      <c r="AK48" s="149"/>
       <c r="AL48" s="54" t="s">
         <v>52</v>
       </c>
@@ -18097,12 +18521,39 @@
       <c r="AQ48" s="53">
         <v>0.52339999999999998</v>
       </c>
-      <c r="AR48" s="112"/>
-      <c r="AS48" s="112"/>
-      <c r="AT48" s="103"/>
+      <c r="AR48" s="102"/>
+      <c r="AS48" s="102"/>
+      <c r="AT48" s="96"/>
       <c r="AV48" s="11"/>
+      <c r="AW48" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX48" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY48" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ48" s="52">
+        <v>0.6804</v>
+      </c>
+      <c r="BA48" s="52">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="BB48" s="50">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="BC48" s="53">
+        <v>0.66510000000000002</v>
+      </c>
+      <c r="BD48" s="53">
+        <v>0.63080000000000003</v>
+      </c>
+      <c r="BE48" s="102"/>
+      <c r="BF48" s="102"/>
+      <c r="BG48" s="96"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -18127,8 +18578,8 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="AI49" s="9"/>
-      <c r="AJ49" s="138"/>
-      <c r="AK49" s="122" t="s">
+      <c r="AJ49" s="153"/>
+      <c r="AK49" s="150" t="s">
         <v>53</v>
       </c>
       <c r="AL49" s="51" t="s">
@@ -18149,12 +18600,39 @@
       <c r="AQ49" s="53">
         <v>1</v>
       </c>
-      <c r="AR49" s="112"/>
-      <c r="AS49" s="112"/>
-      <c r="AT49" s="103"/>
+      <c r="AR49" s="102"/>
+      <c r="AS49" s="102"/>
+      <c r="AT49" s="96"/>
       <c r="AV49" s="11"/>
+      <c r="AW49" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX49" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY49" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ49" s="55">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="BA49" s="55">
+        <v>0.59140000000000004</v>
+      </c>
+      <c r="BB49" s="55">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="BC49" s="53">
+        <v>0.48359999999999997</v>
+      </c>
+      <c r="BD49" s="53">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="BE49" s="102"/>
+      <c r="BF49" s="102"/>
+      <c r="BG49" s="96"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -18177,8 +18655,8 @@
       <c r="V50" s="7"/>
       <c r="X50" s="7"/>
       <c r="AI50" s="9"/>
-      <c r="AJ50" s="138"/>
-      <c r="AK50" s="122"/>
+      <c r="AJ50" s="153"/>
+      <c r="AK50" s="148"/>
       <c r="AL50" s="51" t="s">
         <v>35</v>
       </c>
@@ -18197,16 +18675,43 @@
       <c r="AQ50" s="88">
         <v>1</v>
       </c>
-      <c r="AR50" s="112"/>
-      <c r="AS50" s="112"/>
-      <c r="AT50" s="103"/>
+      <c r="AR50" s="102"/>
+      <c r="AS50" s="102"/>
+      <c r="AT50" s="96"/>
       <c r="AV50" s="11"/>
+      <c r="AW50" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX50" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY50" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ50" s="50">
+        <v>1</v>
+      </c>
+      <c r="BA50" s="50">
+        <v>1</v>
+      </c>
+      <c r="BB50" s="50">
+        <v>1</v>
+      </c>
+      <c r="BC50" s="56">
+        <v>1</v>
+      </c>
+      <c r="BD50" s="53">
+        <v>1</v>
+      </c>
+      <c r="BE50" s="102"/>
+      <c r="BF50" s="102"/>
+      <c r="BG50" s="96"/>
     </row>
-    <row r="51" spans="1:48" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K51" s="2"/>
       <c r="AI51" s="9"/>
-      <c r="AJ51" s="138"/>
-      <c r="AK51" s="122"/>
+      <c r="AJ51" s="153"/>
+      <c r="AK51" s="149"/>
       <c r="AL51" s="54" t="s">
         <v>52</v>
       </c>
@@ -18225,12 +18730,39 @@
       <c r="AQ51" s="88">
         <v>1</v>
       </c>
-      <c r="AR51" s="112"/>
-      <c r="AS51" s="112"/>
-      <c r="AT51" s="103"/>
+      <c r="AR51" s="102"/>
+      <c r="AS51" s="102"/>
+      <c r="AT51" s="96"/>
       <c r="AV51" s="11"/>
+      <c r="AW51" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX51" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY51" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ51" s="50">
+        <v>1</v>
+      </c>
+      <c r="BA51" s="50">
+        <v>1</v>
+      </c>
+      <c r="BB51" s="50">
+        <v>1</v>
+      </c>
+      <c r="BC51" s="56">
+        <v>1</v>
+      </c>
+      <c r="BD51" s="88">
+        <v>1</v>
+      </c>
+      <c r="BE51" s="102"/>
+      <c r="BF51" s="102"/>
+      <c r="BG51" s="96"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
         <v>54</v>
       </c>
@@ -18242,8 +18774,8 @@
         <v>56</v>
       </c>
       <c r="AI52" s="9"/>
-      <c r="AJ52" s="138"/>
-      <c r="AK52" s="122" t="s">
+      <c r="AJ52" s="153"/>
+      <c r="AK52" s="150" t="s">
         <v>57</v>
       </c>
       <c r="AL52" s="51" t="s">
@@ -18264,16 +18796,43 @@
       <c r="AQ52" s="88">
         <v>0.57140000000000002</v>
       </c>
-      <c r="AR52" s="112"/>
-      <c r="AS52" s="112"/>
-      <c r="AT52" s="103"/>
+      <c r="AR52" s="102"/>
+      <c r="AS52" s="102"/>
+      <c r="AT52" s="96"/>
       <c r="AV52" s="11"/>
+      <c r="AW52" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX52" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY52" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ52" s="50">
+        <v>1</v>
+      </c>
+      <c r="BA52" s="50">
+        <v>1</v>
+      </c>
+      <c r="BB52" s="50">
+        <v>1</v>
+      </c>
+      <c r="BC52" s="56">
+        <v>1</v>
+      </c>
+      <c r="BD52" s="88">
+        <v>1</v>
+      </c>
+      <c r="BE52" s="102"/>
+      <c r="BF52" s="102"/>
+      <c r="BG52" s="96"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K53" s="5"/>
       <c r="AI53" s="9"/>
-      <c r="AJ53" s="138"/>
-      <c r="AK53" s="122"/>
+      <c r="AJ53" s="153"/>
+      <c r="AK53" s="148"/>
       <c r="AL53" s="51" t="s">
         <v>35</v>
       </c>
@@ -18292,16 +18851,43 @@
       <c r="AQ53" s="88">
         <v>0.36670000000000003</v>
       </c>
-      <c r="AR53" s="112"/>
-      <c r="AS53" s="112"/>
-      <c r="AT53" s="103"/>
+      <c r="AR53" s="102"/>
+      <c r="AS53" s="102"/>
+      <c r="AT53" s="96"/>
       <c r="AV53" s="11"/>
+      <c r="AW53" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX53" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY53" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ53" s="52">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="BA53" s="52">
+        <v>0.44190000000000002</v>
+      </c>
+      <c r="BB53" s="50">
+        <v>0.43959999999999999</v>
+      </c>
+      <c r="BC53" s="53">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="BD53" s="88">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="BE53" s="102"/>
+      <c r="BF53" s="102"/>
+      <c r="BG53" s="96"/>
     </row>
-    <row r="54" spans="1:48" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:59" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K54" s="5"/>
       <c r="AI54" s="22"/>
-      <c r="AJ54" s="139"/>
-      <c r="AK54" s="121"/>
+      <c r="AJ54" s="154"/>
+      <c r="AK54" s="151"/>
       <c r="AL54" s="72" t="s">
         <v>52</v>
       </c>
@@ -18320,12 +18906,39 @@
       <c r="AQ54" s="89">
         <v>0.4531</v>
       </c>
-      <c r="AR54" s="113"/>
-      <c r="AS54" s="113"/>
-      <c r="AT54" s="104"/>
+      <c r="AR54" s="103"/>
+      <c r="AS54" s="103"/>
+      <c r="AT54" s="97"/>
       <c r="AV54" s="11"/>
+      <c r="AW54" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX54" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY54" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ54" s="55">
+        <v>0.3196</v>
+      </c>
+      <c r="BA54" s="52">
+        <v>0.432</v>
+      </c>
+      <c r="BB54" s="50">
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="BC54" s="53">
+        <v>0.33489999999999998</v>
+      </c>
+      <c r="BD54" s="88">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="BE54" s="102"/>
+      <c r="BF54" s="102"/>
+      <c r="BG54" s="96"/>
     </row>
-    <row r="55" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K55" s="5"/>
       <c r="AI55" s="22"/>
       <c r="AJ55" s="58"/>
@@ -18339,8 +18952,35 @@
       <c r="AR55" s="62"/>
       <c r="AS55" s="62"/>
       <c r="AV55" s="11"/>
+      <c r="AW55" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX55" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY55" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ55" s="73">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="BA55" s="73">
+        <v>0.40860000000000002</v>
+      </c>
+      <c r="BB55" s="73">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="BC55" s="74">
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="BD55" s="89">
+        <v>0.4531</v>
+      </c>
+      <c r="BE55" s="103"/>
+      <c r="BF55" s="103"/>
+      <c r="BG55" s="97"/>
     </row>
-    <row r="56" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K56" s="5"/>
       <c r="AI56" s="22"/>
       <c r="AJ56" s="58"/>
@@ -18355,7 +18995,7 @@
       <c r="AS56" s="62"/>
       <c r="AV56" s="11"/>
     </row>
-    <row r="57" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K57" s="5"/>
       <c r="AI57" s="22"/>
       <c r="AJ57" s="58"/>
@@ -18370,10 +19010,9 @@
       <c r="AS57" s="62"/>
       <c r="AV57" s="11"/>
     </row>
-    <row r="58" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K58" s="5"/>
       <c r="AI58" s="22"/>
-      <c r="AJ58" s="58"/>
       <c r="AK58" s="58"/>
       <c r="AL58" s="59"/>
       <c r="AM58" s="60"/>
@@ -18385,10 +19024,9 @@
       <c r="AS58" s="62"/>
       <c r="AV58" s="11"/>
     </row>
-    <row r="59" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K59" s="5"/>
       <c r="AI59" s="22"/>
-      <c r="AJ59" s="58"/>
       <c r="AK59" s="58"/>
       <c r="AL59" s="59"/>
       <c r="AM59" s="60"/>
@@ -18400,7 +19038,7 @@
       <c r="AS59" s="62"/>
       <c r="AV59" s="11"/>
     </row>
-    <row r="60" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K60" s="5"/>
       <c r="AI60" s="22"/>
       <c r="AJ60" s="58"/>
@@ -18415,7 +19053,7 @@
       <c r="AS60" s="62"/>
       <c r="AV60" s="11"/>
     </row>
-    <row r="61" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K61" s="5"/>
       <c r="AI61" s="22"/>
       <c r="AJ61" s="58"/>
@@ -18430,7 +19068,7 @@
       <c r="AS61" s="62"/>
       <c r="AV61" s="11"/>
     </row>
-    <row r="62" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K62" s="5"/>
       <c r="AI62" s="22"/>
       <c r="AJ62" s="58"/>
@@ -18445,7 +19083,7 @@
       <c r="AS62" s="62"/>
       <c r="AV62" s="11"/>
     </row>
-    <row r="63" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K63" s="5"/>
       <c r="AI63" s="22"/>
       <c r="AJ63" s="58"/>
@@ -18460,7 +19098,7 @@
       <c r="AS63" s="62"/>
       <c r="AV63" s="11"/>
     </row>
-    <row r="64" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K64" s="5"/>
       <c r="AI64" s="22"/>
     </row>
@@ -18497,35 +19135,35 @@
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
       <c r="AI69" s="22"/>
-      <c r="AJ69" s="131" t="s">
+      <c r="AJ69" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="AK69" s="132"/>
-      <c r="AL69" s="90" t="s">
+      <c r="AK69" s="142"/>
+      <c r="AL69" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="AM69" s="90"/>
-      <c r="AN69" s="90"/>
-      <c r="AO69" s="90"/>
-      <c r="AP69" s="90"/>
-      <c r="AQ69" s="90" t="s">
+      <c r="AM69" s="112"/>
+      <c r="AN69" s="112"/>
+      <c r="AO69" s="112"/>
+      <c r="AP69" s="112"/>
+      <c r="AQ69" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="AR69" s="90"/>
-      <c r="AS69" s="90"/>
-      <c r="AT69" s="90" t="s">
+      <c r="AR69" s="112"/>
+      <c r="AS69" s="112"/>
+      <c r="AT69" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="AU69" s="90"/>
-      <c r="AV69" s="90"/>
-      <c r="AW69" s="90"/>
-      <c r="AX69" s="91"/>
+      <c r="AU69" s="112"/>
+      <c r="AV69" s="112"/>
+      <c r="AW69" s="112"/>
+      <c r="AX69" s="113"/>
     </row>
     <row r="70" spans="1:50" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K70" s="6"/>
       <c r="AI70" s="22"/>
-      <c r="AJ70" s="133"/>
-      <c r="AK70" s="134"/>
+      <c r="AJ70" s="143"/>
+      <c r="AK70" s="144"/>
       <c r="AL70" s="33" t="s">
         <v>6</v>
       </c>
@@ -18541,18 +19179,18 @@
       <c r="AP70" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AQ70" s="92" t="s">
+      <c r="AQ70" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="AR70" s="92"/>
+      <c r="AR70" s="114"/>
       <c r="AS70" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AT70" s="92"/>
-      <c r="AU70" s="92"/>
-      <c r="AV70" s="92"/>
-      <c r="AW70" s="92"/>
-      <c r="AX70" s="93"/>
+      <c r="AT70" s="114"/>
+      <c r="AU70" s="114"/>
+      <c r="AV70" s="114"/>
+      <c r="AW70" s="114"/>
+      <c r="AX70" s="115"/>
     </row>
     <row r="71" spans="1:50" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K71" s="1"/>
@@ -18566,7 +19204,7 @@
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
       <c r="AI71" s="22"/>
-      <c r="AJ71" s="135" t="s">
+      <c r="AJ71" s="145" t="s">
         <v>62</v>
       </c>
       <c r="AK71" s="76" t="s">
@@ -18587,20 +19225,20 @@
       <c r="AP71" s="43">
         <v>7.49</v>
       </c>
-      <c r="AQ71" s="109" t="s">
+      <c r="AQ71" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="AR71" s="109"/>
+      <c r="AR71" s="126"/>
       <c r="AS71" s="28">
         <v>45259</v>
       </c>
-      <c r="AT71" s="94" t="s">
+      <c r="AT71" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="AU71" s="94"/>
-      <c r="AV71" s="94"/>
-      <c r="AW71" s="94"/>
-      <c r="AX71" s="95"/>
+      <c r="AU71" s="116"/>
+      <c r="AV71" s="116"/>
+      <c r="AW71" s="116"/>
+      <c r="AX71" s="117"/>
     </row>
     <row r="72" spans="1:50" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K72" s="1"/>
@@ -18614,7 +19252,7 @@
       <c r="S72" s="8"/>
       <c r="T72" s="8"/>
       <c r="AI72" s="22"/>
-      <c r="AJ72" s="136"/>
+      <c r="AJ72" s="146"/>
       <c r="AK72" s="72" t="s">
         <v>65</v>
       </c>
@@ -18629,20 +19267,20 @@
       </c>
       <c r="AO72" s="83"/>
       <c r="AP72" s="83"/>
-      <c r="AQ72" s="110" t="s">
+      <c r="AQ72" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="AR72" s="110"/>
+      <c r="AR72" s="127"/>
       <c r="AS72" s="86">
         <v>45007</v>
       </c>
-      <c r="AT72" s="96" t="s">
+      <c r="AT72" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="AU72" s="96"/>
-      <c r="AV72" s="96"/>
-      <c r="AW72" s="96"/>
-      <c r="AX72" s="97"/>
+      <c r="AU72" s="118"/>
+      <c r="AV72" s="118"/>
+      <c r="AW72" s="118"/>
+      <c r="AX72" s="119"/>
     </row>
     <row r="73" spans="1:50" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="22"/>
@@ -18672,20 +19310,20 @@
         <v>71</v>
       </c>
       <c r="AP73" s="84"/>
-      <c r="AQ73" s="108" t="s">
+      <c r="AQ73" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="AR73" s="108"/>
+      <c r="AR73" s="125"/>
       <c r="AS73" s="87">
         <v>45007</v>
       </c>
-      <c r="AT73" s="98" t="s">
+      <c r="AT73" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="AU73" s="98"/>
-      <c r="AV73" s="98"/>
-      <c r="AW73" s="98"/>
-      <c r="AX73" s="99"/>
+      <c r="AU73" s="120"/>
+      <c r="AV73" s="120"/>
+      <c r="AW73" s="120"/>
+      <c r="AX73" s="121"/>
     </row>
     <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
@@ -18761,7 +19399,7 @@
       <c r="K88" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="83">
     <mergeCell ref="AJ3:AK4"/>
     <mergeCell ref="AQ3:AR3"/>
     <mergeCell ref="AJ16:AK17"/>
@@ -18833,6 +19471,18 @@
     <mergeCell ref="AQ72:AR72"/>
     <mergeCell ref="AR42:AR45"/>
     <mergeCell ref="AS42:AS45"/>
+    <mergeCell ref="BG47:BG55"/>
+    <mergeCell ref="BG41:BG42"/>
+    <mergeCell ref="AX43:AY43"/>
+    <mergeCell ref="BE43:BE46"/>
+    <mergeCell ref="BF43:BF46"/>
+    <mergeCell ref="BG43:BG46"/>
+    <mergeCell ref="AX44:AY44"/>
+    <mergeCell ref="AX45:AY45"/>
+    <mergeCell ref="AX46:AY46"/>
+    <mergeCell ref="BE47:BE55"/>
+    <mergeCell ref="BF47:BF55"/>
+    <mergeCell ref="BE41:BF41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.65625" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -18841,6 +19491,18 @@
     <oddFooter>&amp;C&amp;"-,Negrita"Escuela Técnica Superior de Ingenieros Informáticos - UPM&amp;RDiciembre 2023</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327E21E5-96F5-4A73-9B11-05B3F8B034EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
